--- a/src/test/resources/ExcelData/WMPS_EXCELData.xlsx
+++ b/src/test/resources/ExcelData/WMPS_EXCELData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14460" windowHeight="6075" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="3225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="31" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <sheet name="Configuration" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="J1:P18"/>
+  <oleSize ref="A1:J8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3807,8 +3807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4871,7 +4871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/ExcelData/WMPS_EXCELData.xlsx
+++ b/src/test/resources/ExcelData/WMPS_EXCELData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="3225" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="3225" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="31" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="448">
   <si>
     <t>Material_Type</t>
   </si>
@@ -1274,12 +1274,6 @@
     <t xml:space="preserve">IN - INDIA </t>
   </si>
   <si>
-    <t xml:space="preserve">MYSORE </t>
-  </si>
-  <si>
-    <t>HeteroManPower1</t>
-  </si>
-  <si>
     <t>30022023</t>
   </si>
   <si>
@@ -1307,15 +1301,6 @@
     <t>Date6ML</t>
   </si>
   <si>
-    <t>06112023</t>
-  </si>
-  <si>
-    <t>30062023</t>
-  </si>
-  <si>
-    <t>25052023</t>
-  </si>
-  <si>
     <t>BronzeNitroChloride</t>
   </si>
   <si>
@@ -1349,18 +1334,6 @@
     <t>DCInvoiceNumber_Edit</t>
   </si>
   <si>
-    <t>29042023</t>
-  </si>
-  <si>
-    <t>45RW_MonuChloride</t>
-  </si>
-  <si>
-    <t>45RW_MC_Manufacturer</t>
-  </si>
-  <si>
-    <t>45RW_MC_Supplier</t>
-  </si>
-  <si>
     <t>PO-679635065A111</t>
   </si>
   <si>
@@ -1395,6 +1368,36 @@
   </si>
   <si>
     <t>FP-600</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>18122023</t>
+  </si>
+  <si>
+    <t>25032024</t>
+  </si>
+  <si>
+    <t>25062024</t>
+  </si>
+  <si>
+    <t>25042024</t>
+  </si>
+  <si>
+    <t>69_AcetalDehyde</t>
+  </si>
+  <si>
+    <t>69_AcetalDehyde_Manufacturer</t>
+  </si>
+  <si>
+    <t>69_AcetalDehyde_Supplier</t>
+  </si>
+  <si>
+    <t>HeteroAcetalDehyde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolar </t>
   </si>
 </sst>
 </file>
@@ -1820,17 +1823,18 @@
   <dimension ref="A1:AX11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>382</v>
       </c>
@@ -1844,584 +1848,35 @@
         <v>384</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-    </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
-    </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2"/>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2"/>
-    </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="2"/>
-      <c r="AO5" s="2"/>
-      <c r="AP5" s="2"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="2"/>
-      <c r="AS5" s="2"/>
-      <c r="AT5" s="2"/>
-      <c r="AU5" s="2"/>
-      <c r="AV5" s="2"/>
-      <c r="AW5" s="2"/>
-      <c r="AX5" s="2"/>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
-      <c r="AM6" s="2"/>
-      <c r="AN6" s="2"/>
-      <c r="AO6" s="2"/>
-      <c r="AP6" s="2"/>
-      <c r="AQ6" s="2"/>
-      <c r="AR6" s="2"/>
-      <c r="AS6" s="2"/>
-      <c r="AT6" s="2"/>
-      <c r="AU6" s="2"/>
-      <c r="AV6" s="2"/>
-      <c r="AW6" s="2"/>
-      <c r="AX6" s="2"/>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
-      <c r="AM7" s="2"/>
-      <c r="AN7" s="2"/>
-      <c r="AO7" s="2"/>
-      <c r="AP7" s="2"/>
-      <c r="AQ7" s="2"/>
-      <c r="AR7" s="2"/>
-      <c r="AS7" s="2"/>
-      <c r="AT7" s="2"/>
-      <c r="AU7" s="2"/>
-      <c r="AV7" s="2"/>
-      <c r="AW7" s="2"/>
-      <c r="AX7" s="2"/>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="2"/>
-      <c r="AM8" s="2"/>
-      <c r="AN8" s="2"/>
-      <c r="AO8" s="2"/>
-      <c r="AP8" s="2"/>
-      <c r="AQ8" s="2"/>
-      <c r="AR8" s="2"/>
-      <c r="AS8" s="2"/>
-      <c r="AT8" s="2"/>
-      <c r="AU8" s="2"/>
-      <c r="AV8" s="2"/>
-      <c r="AW8" s="2"/>
-      <c r="AX8" s="2"/>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="2"/>
-      <c r="AM9" s="2"/>
-      <c r="AN9" s="2"/>
-      <c r="AO9" s="2"/>
-      <c r="AP9" s="2"/>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
-      <c r="AS9" s="2"/>
-      <c r="AT9" s="2"/>
-      <c r="AU9" s="2"/>
-      <c r="AV9" s="2"/>
-      <c r="AW9" s="2"/>
-      <c r="AX9" s="2"/>
-    </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
-      <c r="AK10" s="2"/>
-      <c r="AL10" s="2"/>
-      <c r="AM10" s="2"/>
-      <c r="AN10" s="2"/>
-      <c r="AO10" s="2"/>
-      <c r="AP10" s="2"/>
-      <c r="AQ10" s="2"/>
-      <c r="AR10" s="2"/>
-      <c r="AS10" s="2"/>
-      <c r="AT10" s="2"/>
-      <c r="AU10" s="2"/>
-      <c r="AV10" s="2"/>
-      <c r="AW10" s="2"/>
-      <c r="AX10" s="2"/>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
-      <c r="AK11" s="2"/>
-      <c r="AL11" s="2"/>
-      <c r="AM11" s="2"/>
-      <c r="AN11" s="2"/>
-      <c r="AO11" s="2"/>
-      <c r="AP11" s="2"/>
-      <c r="AQ11" s="2"/>
-      <c r="AR11" s="2"/>
-      <c r="AS11" s="2"/>
-      <c r="AT11" s="2"/>
-      <c r="AU11" s="2"/>
-      <c r="AV11" s="2"/>
-      <c r="AW11" s="2"/>
-      <c r="AX11" s="2"/>
-    </row>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3359,25 +2814,26 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>401</v>
       </c>
@@ -3406,12 +2862,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>407</v>
+        <v>446</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>406</v>
+        <v>447</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>402</v>
@@ -3435,6 +2891,7 @@
         <v>268</v>
       </c>
     </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3541,7 +2998,7 @@
         <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>260</v>
@@ -3805,10 +3262,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection sqref="A1:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3834,7 +3291,7 @@
     <col min="19" max="19" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>354</v>
       </c>
@@ -3892,20 +3349,8 @@
       <c r="S1" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>299</v>
       </c>
@@ -3955,7 +3400,7 @@
         <v>88</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>324</v>
+        <v>438</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>324</v>
@@ -3963,20 +3408,8 @@
       <c r="S2" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>299</v>
       </c>
@@ -4014,26 +3447,8 @@
         <v>335</v>
       </c>
       <c r="M3" s="5"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>299</v>
       </c>
@@ -4071,26 +3486,8 @@
         <v>335</v>
       </c>
       <c r="M4" s="5"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>299</v>
       </c>
@@ -4128,25 +3525,10 @@
         <v>335</v>
       </c>
       <c r="M5" s="5"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-    </row>
+    </row>
+    <row r="6" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4871,29 +4253,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4936,27 +4319,22 @@
       <c r="N1" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>255</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>332</v>
@@ -4968,30 +4346,25 @@
         <v>303</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>370</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>352</v>
@@ -4999,79 +4372,26 @@
       <c r="C3" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+    </row>
+    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F4" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H9" s="2"/>
-    </row>
+    </row>
+    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5082,7 +4402,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5103,7 +4423,7 @@
         <v>301</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>264</v>
@@ -5141,7 +4461,7 @@
         <v>302</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>362</v>
@@ -5153,7 +4473,7 @@
         <v>400</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>291</v>
@@ -5168,7 +4488,7 @@
         <v>22</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -5386,7 +4706,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>253</v>
@@ -5442,22 +4762,22 @@
         <v>377</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>411</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>413</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>396</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -5465,31 +4785,31 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>395</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -5557,7 +4877,7 @@
         <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>236</v>
@@ -5566,7 +4886,7 @@
         <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>386</v>
@@ -5583,23 +4903,23 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>235</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>235</v>

--- a/src/test/resources/ExcelData/WMPS_EXCELData.xlsx
+++ b/src/test/resources/ExcelData/WMPS_EXCELData.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="3225" firstSheet="13" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14505" windowHeight="6075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Date" sheetId="31" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <sheet name="Configuration" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J8"/>
+  <oleSize ref="F1:P18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="519">
   <si>
     <t>Material_Type</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Raw Material</t>
-  </si>
-  <si>
-    <t>I</t>
   </si>
   <si>
     <t>Kg</t>
@@ -773,9 +770,6 @@
     <t>Richie_Street</t>
   </si>
   <si>
-    <t>30082022</t>
-  </si>
-  <si>
     <t>30082023</t>
   </si>
   <si>
@@ -797,607 +791,826 @@
     <t>Vendor_Name_Manufacturer</t>
   </si>
   <si>
+    <t>PurchaseOrder_Number</t>
+  </si>
+  <si>
+    <t>Initiate Purchase Order</t>
+  </si>
+  <si>
+    <t>Current_Date</t>
+  </si>
+  <si>
+    <t>Current_Date_Edit</t>
+  </si>
+  <si>
+    <t>07092022</t>
+  </si>
+  <si>
+    <t>06092022</t>
+  </si>
+  <si>
+    <t>VendorBatch_Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RAW MATERIAL </t>
+  </si>
+  <si>
+    <t>CF-001</t>
+  </si>
+  <si>
+    <t>08-09-2022</t>
+  </si>
+  <si>
+    <t>30-10-2022</t>
+  </si>
+  <si>
+    <t>30-10-2023</t>
+  </si>
+  <si>
+    <t>Manufacturing_Date</t>
+  </si>
+  <si>
+    <t>Vendor_Retest</t>
+  </si>
+  <si>
+    <t>Expiry_Date</t>
+  </si>
+  <si>
+    <t>No_of_Container</t>
+  </si>
+  <si>
+    <t>WrongPassword</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Garden</t>
+  </si>
+  <si>
+    <t>Road</t>
+  </si>
+  <si>
+    <t>500081</t>
+  </si>
+  <si>
+    <t>Inspection_Type</t>
+  </si>
+  <si>
+    <t>Inspection_Type_Edit</t>
+  </si>
+  <si>
+    <t>PerTesting25</t>
+  </si>
+  <si>
+    <t>PerTesting15</t>
+  </si>
+  <si>
+    <t>PerTestingAgain55</t>
+  </si>
+  <si>
+    <t>PerTestingAgain15</t>
+  </si>
+  <si>
+    <t>Solid01</t>
+  </si>
+  <si>
+    <t>Solidd01</t>
+  </si>
+  <si>
+    <t>SLD01</t>
+  </si>
+  <si>
+    <t>SLDD01</t>
+  </si>
+  <si>
+    <t>Finished Product-021yhjh</t>
+  </si>
+  <si>
+    <t>mhmhghg</t>
+  </si>
+  <si>
+    <t>Finished Product-025777</t>
+  </si>
+  <si>
+    <t>g555577</t>
+  </si>
+  <si>
+    <t>IND-Tso</t>
+  </si>
+  <si>
+    <t>Today_Date</t>
+  </si>
+  <si>
+    <t>OneMonthLater</t>
+  </si>
+  <si>
+    <t>OneYearLater</t>
+  </si>
+  <si>
+    <t>Past_Date</t>
+  </si>
+  <si>
+    <t>02012023</t>
+  </si>
+  <si>
+    <t>02102021</t>
+  </si>
+  <si>
+    <t>Pharmacopoeia</t>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Sampled_Quantity</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>SampledQuantityUOM</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>Production_Starting_Year</t>
+  </si>
+  <si>
+    <t>'02122022</t>
+  </si>
+  <si>
+    <t>'02012023</t>
+  </si>
+  <si>
+    <t>'02102021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EXTERNAL </t>
+  </si>
+  <si>
+    <t>Uom</t>
+  </si>
+  <si>
+    <t>BatchSize</t>
+  </si>
+  <si>
+    <t>Version_Number</t>
+  </si>
+  <si>
+    <t>CustomerPONumber</t>
+  </si>
+  <si>
+    <t>CustomerPOQuantity</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>9572062196</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>PharmaCopeia</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Initiate Dispatch Request</t>
+  </si>
+  <si>
+    <t>PackingDetails</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>PackingMode</t>
+  </si>
+  <si>
+    <t>PVC</t>
+  </si>
+  <si>
+    <t>DispatchedQuantity</t>
+  </si>
+  <si>
+    <t>NumberOfContainers</t>
+  </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>Ambient</t>
+  </si>
+  <si>
+    <t>MasterCreation</t>
+  </si>
+  <si>
+    <t>InspectIntervalPeriod</t>
+  </si>
+  <si>
+    <t>VendorTypeManufacturer</t>
+  </si>
+  <si>
+    <t>VendorTypeSupplier</t>
+  </si>
+  <si>
+    <t>VendorStatus</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Manufacturer_Assignment_Creation</t>
+  </si>
+  <si>
+    <t>16122022</t>
+  </si>
+  <si>
+    <t>Material_Type_SFP</t>
+  </si>
+  <si>
+    <t>MaterialMasterSFP</t>
+  </si>
+  <si>
+    <t>MaterialCodeSFP</t>
+  </si>
+  <si>
+    <t>MaterialMasterSFP_LongDescription</t>
+  </si>
+  <si>
+    <t>Protocol_Number</t>
+  </si>
+  <si>
+    <t>Material_Long_Description_RM</t>
+  </si>
+  <si>
+    <t>100332</t>
+  </si>
+  <si>
+    <t>Purchase_UOM</t>
+  </si>
+  <si>
+    <t>Basic_UOM</t>
+  </si>
+  <si>
+    <t>AltUOM_X</t>
+  </si>
+  <si>
+    <t>AltUOM_Y</t>
+  </si>
+  <si>
+    <t>AltUOM</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>InspectionType</t>
+  </si>
+  <si>
+    <t>InitiatorPassword</t>
+  </si>
+  <si>
+    <t>1235435</t>
+  </si>
+  <si>
+    <t>1235553</t>
+  </si>
+  <si>
+    <t>1235555</t>
+  </si>
+  <si>
+    <t>7879788</t>
+  </si>
+  <si>
+    <t>1239999</t>
+  </si>
+  <si>
+    <t>InspectIntervalPeriodDMY</t>
+  </si>
+  <si>
+    <t>Material_Type_FP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FINISHED PRODUCT </t>
+  </si>
+  <si>
+    <t>6612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaterialMasterFP </t>
+  </si>
+  <si>
+    <t>MaterialCodeFP</t>
+  </si>
+  <si>
+    <t>Version_NumberRM</t>
+  </si>
+  <si>
+    <t>7712</t>
+  </si>
+  <si>
+    <t>AR_Number_II</t>
+  </si>
+  <si>
+    <t>AR_Number_III</t>
+  </si>
+  <si>
+    <t>MaterialMasterRM</t>
+  </si>
+  <si>
+    <t>Date1MB</t>
+  </si>
+  <si>
+    <t>Date1ML</t>
+  </si>
+  <si>
+    <t>Date2ML</t>
+  </si>
+  <si>
+    <t>DateToday</t>
+  </si>
+  <si>
+    <t>ReceivedUOM</t>
+  </si>
+  <si>
+    <t>PO_Date</t>
+  </si>
+  <si>
+    <t>AR_Number_I</t>
+  </si>
+  <si>
+    <t>StorageLocations1</t>
+  </si>
+  <si>
+    <t>StorageLocations2</t>
+  </si>
+  <si>
+    <t>Raw</t>
+  </si>
+  <si>
+    <t>BPR_Number_I</t>
+  </si>
+  <si>
+    <t>BPR_Number_II</t>
+  </si>
+  <si>
+    <t>BPR-FP-0001</t>
+  </si>
+  <si>
+    <t>BPR-SFP-0054</t>
+  </si>
+  <si>
+    <t>Batch_Number_I</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PVC BAGS</t>
+  </si>
+  <si>
+    <t>ApproverPassword</t>
+  </si>
+  <si>
+    <t>Customer_Name</t>
+  </si>
+  <si>
+    <t>Created Customer name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN - INDIA </t>
+  </si>
+  <si>
+    <t>30022023</t>
+  </si>
+  <si>
+    <t>CF-002</t>
+  </si>
+  <si>
+    <t>04042023</t>
+  </si>
+  <si>
+    <t>VersionNumber_I</t>
+  </si>
+  <si>
+    <t>VersionNumber_II</t>
+  </si>
+  <si>
+    <t>VersionNumber_III</t>
+  </si>
+  <si>
+    <t>Date6ML</t>
+  </si>
+  <si>
+    <t>BronzeNitroChloride</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> INDIA</t>
+  </si>
+  <si>
+    <t>Batch_Number_II</t>
+  </si>
+  <si>
+    <t>Delivery_Number</t>
+  </si>
+  <si>
+    <t>DIS-FP-502230400002</t>
+  </si>
+  <si>
+    <t>Status_Return</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Requested_Quantity_Edit</t>
+  </si>
+  <si>
+    <t>Received_Quantity_Edit</t>
+  </si>
+  <si>
+    <t>120000</t>
+  </si>
+  <si>
+    <t>DCInvoiceNumber_Edit</t>
+  </si>
+  <si>
+    <t>AR001N19799</t>
+  </si>
+  <si>
+    <t>SFP-55</t>
+  </si>
+  <si>
+    <t>BOBNI19620012-02</t>
+  </si>
+  <si>
+    <t>AR002N19665</t>
+  </si>
+  <si>
+    <t>BOBNII1962005</t>
+  </si>
+  <si>
+    <t>AR003N1967</t>
+  </si>
+  <si>
+    <t>FP-600</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>25062024</t>
+  </si>
+  <si>
+    <t>25042024</t>
+  </si>
+  <si>
+    <t>55_chlorogenic_SFP</t>
+  </si>
+  <si>
+    <t>28_trichloride_FinishedProduct</t>
+  </si>
+  <si>
+    <t>COMMERCIAL ORDER</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>BPR-SFP-3025</t>
+  </si>
+  <si>
+    <t>888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888888</t>
+  </si>
+  <si>
+    <t>SRK113</t>
+  </si>
+  <si>
+    <t>SRK114</t>
+  </si>
+  <si>
+    <t>30092023</t>
+  </si>
+  <si>
+    <t>30102023</t>
+  </si>
+  <si>
+    <t>30112023</t>
+  </si>
+  <si>
+    <t>30122023</t>
+  </si>
+  <si>
+    <t>22092024</t>
+  </si>
+  <si>
+    <t>22102024</t>
+  </si>
+  <si>
+    <t>22112024</t>
+  </si>
+  <si>
+    <t>DFP-24</t>
+  </si>
+  <si>
+    <t>DFP-25</t>
+  </si>
+  <si>
+    <t>SRK212</t>
+  </si>
+  <si>
+    <t>2026FP</t>
+  </si>
+  <si>
+    <t>FP-026</t>
+  </si>
+  <si>
+    <t>BPR-N1-003</t>
+  </si>
+  <si>
+    <t>BOM_Password</t>
+  </si>
+  <si>
+    <t>Hetero@2</t>
+  </si>
+  <si>
+    <t>BOB5I8385-003</t>
+  </si>
+  <si>
+    <t>1221Manufacturer</t>
+  </si>
+  <si>
+    <t>29032024</t>
+  </si>
+  <si>
+    <t>SRMS002</t>
+  </si>
+  <si>
+    <t>4322SPF</t>
+  </si>
+  <si>
+    <t>4323SPF</t>
+  </si>
+  <si>
+    <t>Liquid</t>
+  </si>
+  <si>
+    <t>BPR-SFP-4321</t>
+  </si>
+  <si>
+    <t>Vendor_Name_Manufacturer_Edit</t>
+  </si>
+  <si>
     <t>Vendor_Name_Supplier</t>
   </si>
   <si>
-    <t>PurchaseOrder_Number</t>
-  </si>
-  <si>
-    <t>Initiate Purchase Order</t>
-  </si>
-  <si>
-    <t>Current_Date</t>
-  </si>
-  <si>
-    <t>Current_Date_Edit</t>
-  </si>
-  <si>
-    <t>07092022</t>
-  </si>
-  <si>
-    <t>06092022</t>
-  </si>
-  <si>
-    <t>VendorBatch_Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RAW MATERIAL </t>
-  </si>
-  <si>
-    <t>CF-001</t>
-  </si>
-  <si>
-    <t>08-09-2022</t>
-  </si>
-  <si>
-    <t>30-10-2022</t>
-  </si>
-  <si>
-    <t>30-10-2023</t>
-  </si>
-  <si>
-    <t>Manufacturing_Date</t>
-  </si>
-  <si>
-    <t>Vendor_Retest</t>
-  </si>
-  <si>
-    <t>Expiry_Date</t>
-  </si>
-  <si>
-    <t>No_of_Container</t>
-  </si>
-  <si>
-    <t>WrongPassword</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>Garden</t>
-  </si>
-  <si>
-    <t>Road</t>
-  </si>
-  <si>
-    <t>500081</t>
-  </si>
-  <si>
-    <t>Inspection_Type</t>
-  </si>
-  <si>
-    <t>Inspection_Type_Edit</t>
-  </si>
-  <si>
-    <t>PerTesting25</t>
-  </si>
-  <si>
-    <t>PerTesting15</t>
-  </si>
-  <si>
-    <t>PerTestingAgain55</t>
-  </si>
-  <si>
-    <t>PerTestingAgain15</t>
-  </si>
-  <si>
-    <t>Solid01</t>
-  </si>
-  <si>
-    <t>Solidd01</t>
-  </si>
-  <si>
-    <t>SLD01</t>
-  </si>
-  <si>
-    <t>SLDD01</t>
-  </si>
-  <si>
-    <t>Finished Product-021yhjh</t>
-  </si>
-  <si>
-    <t>mhmhghg</t>
-  </si>
-  <si>
-    <t>Finished Product-025777</t>
-  </si>
-  <si>
-    <t>g555577</t>
-  </si>
-  <si>
-    <t>IND-Tso</t>
-  </si>
-  <si>
-    <t>SFP-QS</t>
-  </si>
-  <si>
-    <t>FP-QS</t>
-  </si>
-  <si>
-    <t>Today_Date</t>
-  </si>
-  <si>
-    <t>OneMonthLater</t>
-  </si>
-  <si>
-    <t>OneYearLater</t>
-  </si>
-  <si>
-    <t>Past_Date</t>
-  </si>
-  <si>
-    <t>02012023</t>
-  </si>
-  <si>
-    <t>02102021</t>
-  </si>
-  <si>
-    <t>Pharmacopoeia</t>
-  </si>
-  <si>
-    <t>GENERAL</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Sampled_Quantity</t>
-  </si>
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>SampledQuantityUOM</t>
-  </si>
-  <si>
-    <t>KG</t>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Release</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SEMIFINISHED PRODUCT </t>
-  </si>
-  <si>
-    <t>IIV</t>
-  </si>
-  <si>
-    <t>IVX</t>
-  </si>
-  <si>
-    <t>Production_Starting_Year</t>
-  </si>
-  <si>
-    <t>IX</t>
-  </si>
-  <si>
-    <t>'02122022</t>
-  </si>
-  <si>
-    <t>'02012023</t>
-  </si>
-  <si>
-    <t>'02102021</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EXTERNAL </t>
-  </si>
-  <si>
-    <t>Uom</t>
-  </si>
-  <si>
-    <t>BatchSize</t>
-  </si>
-  <si>
-    <t>Version_Number</t>
-  </si>
-  <si>
-    <t>CustomerPONumber</t>
-  </si>
-  <si>
-    <t>CustomerPOQuantity</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Validation</t>
-  </si>
-  <si>
-    <t>CustomerName</t>
-  </si>
-  <si>
-    <t>Sun</t>
-  </si>
-  <si>
-    <t>9572062196</t>
-  </si>
-  <si>
-    <t>Market</t>
-  </si>
-  <si>
-    <t>PharmaCopeia</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Initiate Dispatch Request</t>
-  </si>
-  <si>
-    <t>PackingDetails</t>
-  </si>
-  <si>
-    <t>Manual</t>
-  </si>
-  <si>
-    <t>PackingMode</t>
-  </si>
-  <si>
-    <t>PVC</t>
-  </si>
-  <si>
-    <t>DispatchedQuantity</t>
-  </si>
-  <si>
-    <t>NumberOfContainers</t>
-  </si>
-  <si>
-    <t>Initial</t>
-  </si>
-  <si>
-    <t>Ambient</t>
-  </si>
-  <si>
-    <t>MasterCreation</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>InspectIntervalPeriod</t>
-  </si>
-  <si>
-    <t>VendorTypeManufacturer</t>
-  </si>
-  <si>
-    <t>VendorTypeSupplier</t>
-  </si>
-  <si>
-    <t>VendorStatus</t>
-  </si>
-  <si>
-    <t>Approved</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Manufacturer_Assignment_Creation</t>
-  </si>
-  <si>
-    <t>16122022</t>
-  </si>
-  <si>
-    <t>Na2CO3</t>
-  </si>
-  <si>
-    <t>Material_Type_SFP</t>
-  </si>
-  <si>
-    <t>MaterialMasterSFP</t>
-  </si>
-  <si>
-    <t>MaterialCodeSFP</t>
-  </si>
-  <si>
-    <t>MaterialMasterSFP_LongDescription</t>
-  </si>
-  <si>
-    <t>Protocol_Number</t>
-  </si>
-  <si>
-    <t>COMMERCIAL REQUEST</t>
-  </si>
-  <si>
-    <t>Material_Long_Description_RM</t>
-  </si>
-  <si>
-    <t>TodiumBiCarvonate</t>
-  </si>
-  <si>
-    <t>100332</t>
-  </si>
-  <si>
-    <t>Purchase_UOM</t>
-  </si>
-  <si>
-    <t>Basic_UOM</t>
-  </si>
-  <si>
-    <t>AltUOM_X</t>
-  </si>
-  <si>
-    <t>AltUOM_Y</t>
-  </si>
-  <si>
-    <t>AltUOM</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>InspectionType</t>
-  </si>
-  <si>
-    <t>InitiatorPassword</t>
-  </si>
-  <si>
-    <t>1235435</t>
-  </si>
-  <si>
-    <t>1235553</t>
-  </si>
-  <si>
-    <t>1235555</t>
-  </si>
-  <si>
-    <t>7879788</t>
-  </si>
-  <si>
-    <t>1239999</t>
-  </si>
-  <si>
-    <t>InspectIntervalPeriodDMY</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Material_Type_FP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FINISHED PRODUCT </t>
-  </si>
-  <si>
-    <t>6612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaterialMasterFP </t>
-  </si>
-  <si>
-    <t>MaterialCodeFP</t>
-  </si>
-  <si>
-    <t>Version_NumberRM</t>
-  </si>
-  <si>
-    <t>7712</t>
-  </si>
-  <si>
-    <t>AR_Number_II</t>
-  </si>
-  <si>
-    <t>AR_Number_III</t>
-  </si>
-  <si>
-    <t>MaterialMasterRM</t>
-  </si>
-  <si>
-    <t>IN - INDIA</t>
-  </si>
-  <si>
-    <t>KA - KARNATAKA</t>
-  </si>
-  <si>
-    <t>BENGALURU</t>
-  </si>
-  <si>
-    <t>Date1MB</t>
-  </si>
-  <si>
-    <t>Date1ML</t>
-  </si>
-  <si>
-    <t>Date2ML</t>
-  </si>
-  <si>
-    <t>DateToday</t>
-  </si>
-  <si>
-    <t>ReceivedUOM</t>
-  </si>
-  <si>
-    <t>PO_Date</t>
-  </si>
-  <si>
-    <t>AR_Number_I</t>
-  </si>
-  <si>
-    <t>StorageLocations1</t>
-  </si>
-  <si>
-    <t>StorageLocations2</t>
-  </si>
-  <si>
-    <t>Raw</t>
-  </si>
-  <si>
-    <t>BPR_Number_I</t>
-  </si>
-  <si>
-    <t>BPR_Number_II</t>
-  </si>
-  <si>
-    <t>BPR-FP-0001</t>
-  </si>
-  <si>
-    <t>BPR-SFP-0054</t>
-  </si>
-  <si>
-    <t>Batch_Number_I</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PVC BAGS</t>
-  </si>
-  <si>
-    <t>ApproverPassword</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>Customer_Name</t>
-  </si>
-  <si>
-    <t>560506</t>
-  </si>
-  <si>
-    <t>Created Customer name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KA - KARNATAKA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN - INDIA </t>
-  </si>
-  <si>
-    <t>30022023</t>
-  </si>
-  <si>
-    <t>CF-002</t>
-  </si>
-  <si>
-    <t>04042023</t>
-  </si>
-  <si>
-    <t>VersionNumber_I</t>
-  </si>
-  <si>
-    <t>VersionNumber_II</t>
-  </si>
-  <si>
-    <t>VersionNumber_III</t>
-  </si>
-  <si>
-    <t>Na2CO3TECH_RW</t>
-  </si>
-  <si>
-    <t>90000</t>
-  </si>
-  <si>
-    <t>Date6ML</t>
-  </si>
-  <si>
-    <t>BronzeNitroChloride</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> INDIA</t>
-  </si>
-  <si>
-    <t>Batch_Number_II</t>
-  </si>
-  <si>
-    <t>Delivery_Number</t>
-  </si>
-  <si>
-    <t>DIS-FP-502230400002</t>
-  </si>
-  <si>
-    <t>Status_Return</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>Requested_Quantity_Edit</t>
-  </si>
-  <si>
-    <t>Received_Quantity_Edit</t>
-  </si>
-  <si>
-    <t>120000</t>
-  </si>
-  <si>
-    <t>DCInvoiceNumber_Edit</t>
-  </si>
-  <si>
-    <t>PO-679635065A111</t>
-  </si>
-  <si>
-    <t>AR001N19799</t>
-  </si>
-  <si>
-    <t>55_MC_SFP</t>
-  </si>
-  <si>
-    <t>SFP-55</t>
-  </si>
-  <si>
-    <t>BPR-SFP-0061</t>
-  </si>
-  <si>
-    <t>BOBNI19620012-02</t>
-  </si>
-  <si>
-    <t>AR002N19665</t>
-  </si>
-  <si>
-    <t>BPR-FP-0059</t>
-  </si>
-  <si>
-    <t>BOBNII1962005</t>
-  </si>
-  <si>
-    <t>AR003N1967</t>
-  </si>
-  <si>
-    <t>600_MC_FinishedProduct</t>
-  </si>
-  <si>
-    <t>FP-600</t>
-  </si>
-  <si>
-    <t>Intermediate</t>
-  </si>
-  <si>
-    <t>18122023</t>
-  </si>
-  <si>
-    <t>25032024</t>
-  </si>
-  <si>
-    <t>25062024</t>
-  </si>
-  <si>
-    <t>25042024</t>
-  </si>
-  <si>
-    <t>69_AcetalDehyde</t>
-  </si>
-  <si>
-    <t>69_AcetalDehyde_Manufacturer</t>
-  </si>
-  <si>
-    <t>69_AcetalDehyde_Supplier</t>
-  </si>
-  <si>
-    <t>HeteroAcetalDehyde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kolar </t>
+    <t>Vendor_Name_Supplier_Edit</t>
+  </si>
+  <si>
+    <t>Aarthi Induatries</t>
+  </si>
+  <si>
+    <t>Aarti</t>
+  </si>
+  <si>
+    <t>Audree Infotech</t>
+  </si>
+  <si>
+    <t>Image Gardens</t>
+  </si>
+  <si>
+    <t>2 street</t>
+  </si>
+  <si>
+    <t>hyderabad</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>500185</t>
+  </si>
+  <si>
+    <t>600SFP</t>
+  </si>
+  <si>
+    <t>DFP-600</t>
+  </si>
+  <si>
+    <t>AltUOM_X2</t>
+  </si>
+  <si>
+    <t>AltUOM2</t>
+  </si>
+  <si>
+    <t>698FP</t>
+  </si>
+  <si>
+    <t>FP-69</t>
+  </si>
+  <si>
+    <t>liter-kg</t>
+  </si>
+  <si>
+    <t>kg-liter</t>
+  </si>
+  <si>
+    <t>Nos-kg</t>
+  </si>
+  <si>
+    <t>Kg-Nos</t>
+  </si>
+  <si>
+    <t>Nos-M3</t>
+  </si>
+  <si>
+    <t>M3-Nos</t>
+  </si>
+  <si>
+    <t>Pc-Kg</t>
+  </si>
+  <si>
+    <t>Kg-Pc</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>SRK_Industies</t>
+  </si>
+  <si>
+    <t>SRK_Enterprises</t>
+  </si>
+  <si>
+    <t>RML334</t>
+  </si>
+  <si>
+    <t>RML335</t>
+  </si>
+  <si>
+    <t>RML336</t>
+  </si>
+  <si>
+    <t>RML337</t>
+  </si>
+  <si>
+    <t>RML338</t>
+  </si>
+  <si>
+    <t>RML339</t>
+  </si>
+  <si>
+    <t>RML340</t>
+  </si>
+  <si>
+    <t>RML341</t>
+  </si>
+  <si>
+    <t>MaterialMasterRMLL</t>
+  </si>
+  <si>
+    <t>Street_Edit</t>
+  </si>
+  <si>
+    <t>Image1</t>
+  </si>
+  <si>
+    <t>Street1_Edit</t>
+  </si>
+  <si>
+    <t>Garden_1</t>
+  </si>
+  <si>
+    <t>Postal_Code_Edit</t>
+  </si>
+  <si>
+    <t>500099</t>
+  </si>
+  <si>
+    <t>500096</t>
+  </si>
+  <si>
+    <t>MaterialMasterRM_Edit</t>
+  </si>
+  <si>
+    <t>Date1DB</t>
+  </si>
+  <si>
+    <t>07012024</t>
+  </si>
+  <si>
+    <t>MaterialMasterSFP_Edit</t>
+  </si>
+  <si>
+    <t>MaterialMasterFP _Edit</t>
+  </si>
+  <si>
+    <t>Purchase_UOM_Edit</t>
+  </si>
+  <si>
+    <t>Basic_UOM_Edit</t>
+  </si>
+  <si>
+    <t>AltUOM_Edit</t>
+  </si>
+  <si>
+    <t>Storage_Conditions_Edit</t>
+  </si>
+  <si>
+    <t>Far</t>
+  </si>
+  <si>
+    <t>Stock Transfer</t>
+  </si>
+  <si>
+    <t>StorageLocations1_Edit</t>
+  </si>
+  <si>
+    <t>WAREHOUSE</t>
+  </si>
+  <si>
+    <t>Audree@1</t>
+  </si>
+  <si>
+    <t>AR69N12222</t>
+  </si>
+  <si>
+    <t>10012024</t>
+  </si>
+  <si>
+    <t>Rounding_Edit</t>
+  </si>
+  <si>
+    <t>TTD03</t>
+  </si>
+  <si>
+    <t>AR69N12525</t>
+  </si>
+  <si>
+    <t>SEMI FINISHED PRODUCT</t>
+  </si>
+  <si>
+    <t>8520RM</t>
+  </si>
+  <si>
+    <t>9630RM</t>
+  </si>
+  <si>
+    <t>Vijetha Induatries</t>
+  </si>
+  <si>
+    <t>RJS Enterprises</t>
+  </si>
+  <si>
+    <t>1903RM</t>
+  </si>
+  <si>
+    <t>1904FP</t>
+  </si>
+  <si>
+    <t>FP-04</t>
+  </si>
+  <si>
+    <t>1903</t>
   </si>
 </sst>
 </file>
@@ -1519,7 +1732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1538,7 +1751,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1820,10 +2036,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX11"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1834,49 +2051,126 @@
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>406</v>
-      </c>
       <c r="B2" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>440</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="3" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>411</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1884,6 +2178,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:AP2"/>
   <sheetViews>
     <sheetView topLeftCell="O1" workbookViewId="0">
@@ -1934,258 +2229,258 @@
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="AB1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="AE1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="AG1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="AL1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="AB2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="AE2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF2" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="AF2" s="6" t="s">
-        <v>137</v>
-      </c>
       <c r="AG2" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AI2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="AJ2" s="6" t="s">
-        <v>143</v>
-      </c>
       <c r="AK2" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AL2" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AM2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN2" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="AN2" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="AO2" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2195,6 +2490,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2209,10 +2505,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -2220,18 +2516,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2269,6 +2565,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2290,60 +2587,60 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>106</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>189</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2353,458 +2650,306 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="21" customWidth="1"/>
+    <col min="3" max="4" width="16.85546875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="21" customWidth="1"/>
+    <col min="7" max="7" width="12" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="21" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="21" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" style="21" customWidth="1"/>
+    <col min="11" max="11" width="16" style="21" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="21" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>187</v>
+        <v>484</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>186</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>380</v>
+      <c r="J3" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G92"/>
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="35" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="35" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E6" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E11"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E12"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E13"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E14"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E15"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E16"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19"/>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E20"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E21"/>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E22"/>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E23"/>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E24"/>
-    </row>
-    <row r="25" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E25"/>
-    </row>
-    <row r="26" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E29"/>
-    </row>
-    <row r="30" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E30"/>
-    </row>
-    <row r="31" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E31"/>
-    </row>
-    <row r="32" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E32"/>
-    </row>
-    <row r="33" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E33"/>
-    </row>
-    <row r="34" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E34"/>
-    </row>
-    <row r="35" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E35"/>
-    </row>
-    <row r="36" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E36"/>
-    </row>
-    <row r="37" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E37"/>
-    </row>
-    <row r="38" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E38"/>
-    </row>
-    <row r="39" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E39"/>
-    </row>
-    <row r="40" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E40"/>
-    </row>
-    <row r="41" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E41"/>
-    </row>
-    <row r="42" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E42"/>
-    </row>
-    <row r="43" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E43"/>
-    </row>
-    <row r="44" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E44"/>
-    </row>
-    <row r="45" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E45"/>
-    </row>
-    <row r="46" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E46"/>
-    </row>
-    <row r="47" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E47"/>
-    </row>
-    <row r="48" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E48"/>
-    </row>
-    <row r="49" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E49"/>
-    </row>
-    <row r="50" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E50"/>
-    </row>
-    <row r="51" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E51"/>
-    </row>
-    <row r="52" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E52"/>
-    </row>
-    <row r="53" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E53"/>
-    </row>
-    <row r="54" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E54"/>
-    </row>
-    <row r="55" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E55"/>
-    </row>
-    <row r="56" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E56"/>
-    </row>
-    <row r="57" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E57"/>
-    </row>
-    <row r="58" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E58"/>
-    </row>
-    <row r="59" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E59"/>
-    </row>
-    <row r="60" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E60"/>
-    </row>
-    <row r="61" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E61"/>
-    </row>
-    <row r="62" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E62"/>
-    </row>
-    <row r="63" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E63"/>
-    </row>
-    <row r="64" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E64"/>
-    </row>
-    <row r="65" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E65"/>
-    </row>
-    <row r="66" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E66"/>
-    </row>
-    <row r="67" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E67"/>
-    </row>
-    <row r="68" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E68"/>
-    </row>
-    <row r="69" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E69"/>
-    </row>
-    <row r="70" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E70"/>
-    </row>
-    <row r="71" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E71"/>
-    </row>
-    <row r="72" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E72"/>
-    </row>
-    <row r="73" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E73"/>
-    </row>
-    <row r="74" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E74"/>
-    </row>
-    <row r="75" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E75"/>
-    </row>
-    <row r="76" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E76"/>
-    </row>
-    <row r="77" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E77"/>
-    </row>
-    <row r="78" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E78"/>
-    </row>
-    <row r="79" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E79"/>
-    </row>
-    <row r="80" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E80"/>
-    </row>
-    <row r="81" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E81"/>
-    </row>
-    <row r="82" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E82"/>
-    </row>
-    <row r="83" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E83"/>
-    </row>
-    <row r="84" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E84"/>
-    </row>
-    <row r="85" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E85"/>
-    </row>
-    <row r="86" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E86"/>
-    </row>
-    <row r="87" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E87"/>
-    </row>
-    <row r="88" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E88"/>
-    </row>
-    <row r="89" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E89"/>
-    </row>
-    <row r="90" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E90"/>
-    </row>
-    <row r="91" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E91"/>
-    </row>
-    <row r="92" spans="5:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="E92"/>
+      <c r="G6" s="2" t="s">
+        <v>331</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2814,11 +2959,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <sheetPr codeName="Sheet15"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2827,71 +2971,70 @@
     <col min="3" max="3" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>402</v>
+        <v>455</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>266</v>
+        <v>451</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>267</v>
+        <v>452</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>264</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2899,6 +3042,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2913,56 +3057,56 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2972,10 +3116,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <sheetPr codeName="Sheet17"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2992,60 +3137,234 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3056,155 +3375,296 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <sheetPr codeName="Sheet18"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="2"/>
+    <col min="12" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="G2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="K2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="H3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="L3" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>415</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3213,6 +3673,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3229,30 +3690,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3262,273 +3723,818 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE8"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection sqref="A1:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>353</v>
+        <v>345</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="S2" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="P3" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="R2" s="4" t="s">
+      <c r="S3" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="T3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="J4" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="S4" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="S5" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="J6" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="S6" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="S7" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="Q8" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="R8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="S8" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="S9" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3537,6 +4543,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3561,78 +4568,78 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>327</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -3642,6 +4649,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3658,30 +4666,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="D2" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3691,6 +4699,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3706,30 +4715,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3739,6 +4748,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3755,492 +4765,492 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+    </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="B32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="B35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4251,416 +5261,828 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S9"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.7109375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="31.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="36" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>246</v>
+      <c r="B1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>483</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F1" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>347</v>
+      <c r="K1" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="K2" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="N3" s="18"/>
+      <c r="O3" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="N4" s="18"/>
+      <c r="O4" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="N5" s="18"/>
+      <c r="O5" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="R5" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="S5" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="T5" s="18" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="N6" s="18"/>
+      <c r="O6" s="19" t="s">
         <v>429</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="P6" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="R6" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="S6" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="T6" s="18" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="R7" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="S7" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="T7" s="18" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="N8" s="18"/>
+      <c r="O8" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="R8" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="S8" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>474</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>287</v>
+        <v>435</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
+        <v>284</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>265</v>
+        <v>504</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>400</v>
+        <v>504</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>408</v>
+        <v>436</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>22</v>
+        <v>286</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>296</v>
+      </c>
       <c r="C3" s="4" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>265</v>
+        <v>504</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>400</v>
+        <v>504</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>343</v>
+        <v>436</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>296</v>
+      </c>
       <c r="C4" s="4" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>265</v>
+        <v>504</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>400</v>
+        <v>504</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>309</v>
+        <v>436</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>296</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>265</v>
+        <v>504</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>400</v>
+        <v>504</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>309</v>
+        <v>436</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>296</v>
+      </c>
       <c r="C6" s="4" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>265</v>
+        <v>504</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>308</v>
+        <v>504</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>436</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>296</v>
+      </c>
       <c r="C7" s="4" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2" t="s">
-        <v>308</v>
+        <v>504</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>436</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4669,9 +6091,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4685,16 +6108,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -4706,16 +6129,16 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -4732,110 +6155,120 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16" style="2" customWidth="1"/>
+    <col min="3" max="4" width="14.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="F1" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="G1" s="17" t="s">
+      <c r="H2" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>396</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4845,136 +6278,223 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B2" s="2"/>
+      <c r="A2" s="4" t="s">
+        <v>508</v>
+      </c>
       <c r="C2" s="4" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="A3" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="A4" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
+      <c r="A5" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>193</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4983,6 +6503,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4994,21 +6515,21 @@
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -5021,16 +6542,16 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -5043,16 +6564,16 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -5154,6 +6675,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5173,83 +6695,83 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
